--- a/FG.xlsx
+++ b/FG.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="16">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
@@ -32,16 +32,25 @@
     <t>15:45</t>
   </si>
   <si>
+    <t>U3-4</t>
+  </si>
+  <si>
     <t>TYPE_COURS</t>
   </si>
   <si>
     <t>vendredi</t>
   </si>
   <si>
+    <t>U3-110</t>
+  </si>
+  <si>
     <t>lundi</t>
   </si>
   <si>
     <t>mardi</t>
+  </si>
+  <si>
+    <t>U3-Amphi</t>
   </si>
   <si>
     <t>7:45</t>
@@ -135,10 +144,12 @@
       <c r="E3" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F3" s="0"/>
+      <c r="F3" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G3" s="0"/>
       <c r="H3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3" s="0"/>
     </row>
@@ -147,7 +158,7 @@
         <v>45926.0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -166,10 +177,12 @@
       <c r="E5" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F5" s="0"/>
+      <c r="F5" t="s" s="0">
+        <v>9</v>
+      </c>
       <c r="G5" s="0"/>
       <c r="H5" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I5" s="0"/>
     </row>
@@ -186,7 +199,7 @@
         <v>45929.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -205,10 +218,12 @@
       <c r="E8" t="n" s="0">
         <v>3.0</v>
       </c>
-      <c r="F8" s="0"/>
+      <c r="F8" t="s" s="0">
+        <v>9</v>
+      </c>
       <c r="G8" s="0"/>
       <c r="H8" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I8" s="0"/>
     </row>
@@ -217,7 +232,7 @@
         <v>45930.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -236,10 +251,12 @@
       <c r="E10" t="n" s="0">
         <v>3.0</v>
       </c>
-      <c r="F10" s="0"/>
+      <c r="F10" t="s" s="0">
+        <v>12</v>
+      </c>
       <c r="G10" s="0"/>
       <c r="H10" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I10" s="0"/>
     </row>
@@ -256,7 +273,7 @@
         <v>45936.0</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -278,7 +295,7 @@
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
       <c r="H13" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I13" s="0"/>
     </row>
@@ -287,7 +304,7 @@
         <v>45937.0</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -301,15 +318,17 @@
         <v>4</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E15" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F15" s="0"/>
+      <c r="F15" t="s" s="0">
+        <v>9</v>
+      </c>
       <c r="G15" s="0"/>
       <c r="H15" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I15" s="0"/>
     </row>
@@ -324,15 +343,17 @@
         <v>4</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E16" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F16" s="0"/>
+      <c r="F16" t="s" s="0">
+        <v>9</v>
+      </c>
       <c r="G16" s="0"/>
       <c r="H16" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I16" s="0"/>
     </row>
@@ -355,7 +376,7 @@
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
       <c r="H17" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I17" s="0"/>
     </row>
@@ -372,7 +393,7 @@
         <v>45943.0</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -391,10 +412,12 @@
       <c r="E20" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F20" s="0"/>
+      <c r="F20" t="s" s="0">
+        <v>12</v>
+      </c>
       <c r="G20" s="0"/>
       <c r="H20" t="s" s="0">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I20" s="0"/>
     </row>

--- a/FG.xlsx
+++ b/FG.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
@@ -32,22 +32,34 @@
     <t>15:45</t>
   </si>
   <si>
+    <t>U3-4</t>
+  </si>
+  <si>
     <t>TYPE_COURS</t>
   </si>
   <si>
     <t>vendredi</t>
   </si>
   <si>
+    <t>U3-110</t>
+  </si>
+  <si>
     <t>lundi</t>
   </si>
   <si>
     <t>mardi</t>
   </si>
   <si>
+    <t>U3-Amphi</t>
+  </si>
+  <si>
     <t>7:45</t>
   </si>
   <si>
     <t>10:0</t>
+  </si>
+  <si>
+    <t>U3-109</t>
   </si>
   <si>
     <t>TYPE_CONTROLE</t>
@@ -135,10 +147,12 @@
       <c r="E3" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F3" s="0"/>
+      <c r="F3" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G3" s="0"/>
       <c r="H3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3" s="0"/>
     </row>
@@ -147,7 +161,7 @@
         <v>45926.0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -166,10 +180,12 @@
       <c r="E5" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F5" s="0"/>
+      <c r="F5" t="s" s="0">
+        <v>9</v>
+      </c>
       <c r="G5" s="0"/>
       <c r="H5" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I5" s="0"/>
     </row>
@@ -186,7 +202,7 @@
         <v>45929.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -205,10 +221,12 @@
       <c r="E8" t="n" s="0">
         <v>3.0</v>
       </c>
-      <c r="F8" s="0"/>
+      <c r="F8" t="s" s="0">
+        <v>9</v>
+      </c>
       <c r="G8" s="0"/>
       <c r="H8" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I8" s="0"/>
     </row>
@@ -217,7 +235,7 @@
         <v>45930.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -236,10 +254,12 @@
       <c r="E10" t="n" s="0">
         <v>3.0</v>
       </c>
-      <c r="F10" s="0"/>
+      <c r="F10" t="s" s="0">
+        <v>12</v>
+      </c>
       <c r="G10" s="0"/>
       <c r="H10" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I10" s="0"/>
     </row>
@@ -256,7 +276,7 @@
         <v>45936.0</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -275,10 +295,12 @@
       <c r="E13" t="n" s="0">
         <v>3.0</v>
       </c>
-      <c r="F13" s="0"/>
+      <c r="F13" t="s" s="0">
+        <v>12</v>
+      </c>
       <c r="G13" s="0"/>
       <c r="H13" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I13" s="0"/>
     </row>
@@ -287,7 +309,7 @@
         <v>45937.0</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -301,15 +323,17 @@
         <v>4</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E15" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F15" s="0"/>
+      <c r="F15" t="s" s="0">
+        <v>9</v>
+      </c>
       <c r="G15" s="0"/>
       <c r="H15" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I15" s="0"/>
     </row>
@@ -324,15 +348,17 @@
         <v>4</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E16" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F16" s="0"/>
+      <c r="F16" t="s" s="0">
+        <v>9</v>
+      </c>
       <c r="G16" s="0"/>
       <c r="H16" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I16" s="0"/>
     </row>
@@ -352,10 +378,12 @@
       <c r="E17" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F17" s="0"/>
+      <c r="F17" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="G17" s="0"/>
       <c r="H17" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I17" s="0"/>
     </row>
@@ -372,7 +400,7 @@
         <v>45943.0</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -391,10 +419,12 @@
       <c r="E20" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F20" s="0"/>
+      <c r="F20" t="s" s="0">
+        <v>12</v>
+      </c>
       <c r="G20" s="0"/>
       <c r="H20" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I20" s="0"/>
     </row>
